--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F2-F2rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/F2-F2rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.435996</v>
+        <v>1.654227</v>
       </c>
       <c r="H2">
-        <v>1.307988</v>
+        <v>4.962681</v>
       </c>
       <c r="I2">
-        <v>0.1465413898077063</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="J2">
-        <v>0.1465413898077064</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1383833333333333</v>
+        <v>0.4424383333333333</v>
       </c>
       <c r="N2">
-        <v>0.41515</v>
+        <v>1.327315</v>
       </c>
       <c r="O2">
-        <v>0.02308080968692381</v>
+        <v>0.06873529267527652</v>
       </c>
       <c r="P2">
-        <v>0.02308080968692382</v>
+        <v>0.06873529267527652</v>
       </c>
       <c r="Q2">
-        <v>0.0603345798</v>
+        <v>0.731893436835</v>
       </c>
       <c r="R2">
-        <v>0.5430112182</v>
+        <v>6.587040931515</v>
       </c>
       <c r="S2">
-        <v>0.003382293929408987</v>
+        <v>0.02823361217733215</v>
       </c>
       <c r="T2">
-        <v>0.003382293929408988</v>
+        <v>0.02823361217733215</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.435996</v>
+        <v>1.654227</v>
       </c>
       <c r="H3">
-        <v>1.307988</v>
+        <v>4.962681</v>
       </c>
       <c r="I3">
-        <v>0.1465413898077063</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="J3">
-        <v>0.1465413898077064</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,27 +623,27 @@
         <v>17.571654</v>
       </c>
       <c r="O3">
-        <v>0.9769191903130762</v>
+        <v>0.9099518806603505</v>
       </c>
       <c r="P3">
-        <v>0.9769191903130762</v>
+        <v>0.9099518806603506</v>
       </c>
       <c r="Q3">
-        <v>2.553723619128</v>
+        <v>9.689168160485998</v>
       </c>
       <c r="R3">
-        <v>22.983512572152</v>
+        <v>87.20251344437399</v>
       </c>
       <c r="S3">
-        <v>0.1431590958782973</v>
+        <v>0.3737705551058091</v>
       </c>
       <c r="T3">
-        <v>0.1431590958782974</v>
+        <v>0.3737705551058092</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.288726</v>
+        <v>1.654227</v>
       </c>
       <c r="H4">
-        <v>3.866178</v>
+        <v>4.962681</v>
       </c>
       <c r="I4">
-        <v>0.4331500727560027</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="J4">
-        <v>0.4331500727560028</v>
+        <v>0.4107585939979205</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1383833333333333</v>
+        <v>0.1371873333333333</v>
       </c>
       <c r="N4">
-        <v>0.41515</v>
+        <v>0.411562</v>
       </c>
       <c r="O4">
-        <v>0.02308080968692381</v>
+        <v>0.02131282666437293</v>
       </c>
       <c r="P4">
-        <v>0.02308080968692382</v>
+        <v>0.02131282666437293</v>
       </c>
       <c r="Q4">
-        <v>0.1783381996333333</v>
+        <v>0.226938990858</v>
       </c>
       <c r="R4">
-        <v>1.6050437967</v>
+        <v>2.042450917722</v>
       </c>
       <c r="S4">
-        <v>0.009997454395158503</v>
+        <v>0.008754426714779214</v>
       </c>
       <c r="T4">
-        <v>0.009997454395158504</v>
+        <v>0.008754426714779214</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,45 +729,45 @@
         <v>3.866178</v>
       </c>
       <c r="I5">
-        <v>0.4331500727560027</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="J5">
-        <v>0.4331500727560028</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>5.857218</v>
+        <v>0.4424383333333333</v>
       </c>
       <c r="N5">
-        <v>17.571654</v>
+        <v>1.327315</v>
       </c>
       <c r="O5">
-        <v>0.9769191903130762</v>
+        <v>0.06873529267527652</v>
       </c>
       <c r="P5">
-        <v>0.9769191903130762</v>
+        <v>0.06873529267527652</v>
       </c>
       <c r="Q5">
-        <v>7.548349124267999</v>
+        <v>0.5701817835633333</v>
       </c>
       <c r="R5">
-        <v>67.93514211841199</v>
+        <v>5.131636052069999</v>
       </c>
       <c r="S5">
-        <v>0.4231526183608442</v>
+        <v>0.02199540334358256</v>
       </c>
       <c r="T5">
-        <v>0.4231526183608442</v>
+        <v>0.02199540334358256</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,51 +785,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.048102333333333</v>
+        <v>1.288726</v>
       </c>
       <c r="H6">
-        <v>3.144307</v>
+        <v>3.866178</v>
       </c>
       <c r="I6">
-        <v>0.3522747286382594</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="J6">
-        <v>0.3522747286382595</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1383833333333333</v>
+        <v>5.857218</v>
       </c>
       <c r="N6">
-        <v>0.41515</v>
+        <v>17.571654</v>
       </c>
       <c r="O6">
-        <v>0.02308080968692381</v>
+        <v>0.9099518806603505</v>
       </c>
       <c r="P6">
-        <v>0.02308080968692382</v>
+        <v>0.9099518806603506</v>
       </c>
       <c r="Q6">
-        <v>0.1450398945611111</v>
+        <v>7.548349124267999</v>
       </c>
       <c r="R6">
-        <v>1.30535905105</v>
+        <v>67.93514211841199</v>
       </c>
       <c r="S6">
-        <v>0.008130785969212396</v>
+        <v>0.2911860539087374</v>
       </c>
       <c r="T6">
-        <v>0.008130785969212399</v>
+        <v>0.2911860539087374</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.048102333333333</v>
+        <v>1.288726</v>
       </c>
       <c r="H7">
-        <v>3.144307</v>
+        <v>3.866178</v>
       </c>
       <c r="I7">
-        <v>0.3522747286382594</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="J7">
-        <v>0.3522747286382595</v>
+        <v>0.3200015957958394</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>5.857218</v>
+        <v>0.1371873333333333</v>
       </c>
       <c r="N7">
-        <v>17.571654</v>
+        <v>0.411562</v>
       </c>
       <c r="O7">
-        <v>0.9769191903130762</v>
+        <v>0.02131282666437293</v>
       </c>
       <c r="P7">
-        <v>0.9769191903130762</v>
+        <v>0.02131282666437293</v>
       </c>
       <c r="Q7">
-        <v>6.138963852641999</v>
+        <v>0.1767968833373333</v>
       </c>
       <c r="R7">
-        <v>55.25067467377799</v>
+        <v>1.591171950036</v>
       </c>
       <c r="S7">
-        <v>0.344143942669047</v>
+        <v>0.006820138543519454</v>
       </c>
       <c r="T7">
-        <v>0.3441439426690471</v>
+        <v>0.006820138543519454</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,57 +903,57 @@
         <v>20</v>
       </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.8858993333333333</v>
+      </c>
+      <c r="H8">
+        <v>2.657698</v>
+      </c>
+      <c r="I8">
+        <v>0.2199763179924491</v>
+      </c>
+      <c r="J8">
+        <v>0.2199763179924491</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="L8">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G8">
-        <v>0.202417</v>
-      </c>
-      <c r="H8">
-        <v>0.607251</v>
-      </c>
-      <c r="I8">
-        <v>0.06803380879803139</v>
-      </c>
-      <c r="J8">
-        <v>0.06803380879803141</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M8">
-        <v>0.1383833333333333</v>
+        <v>0.4424383333333333</v>
       </c>
       <c r="N8">
-        <v>0.41515</v>
+        <v>1.327315</v>
       </c>
       <c r="O8">
-        <v>0.02308080968692381</v>
+        <v>0.06873529267527652</v>
       </c>
       <c r="P8">
-        <v>0.02308080968692382</v>
+        <v>0.06873529267527652</v>
       </c>
       <c r="Q8">
-        <v>0.02801113918333333</v>
+        <v>0.3919558245411111</v>
       </c>
       <c r="R8">
-        <v>0.25210025265</v>
+        <v>3.52760242087</v>
       </c>
       <c r="S8">
-        <v>0.001570275393143926</v>
+        <v>0.01512013659884069</v>
       </c>
       <c r="T8">
-        <v>0.001570275393143926</v>
+        <v>0.01512013659884069</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,22 +965,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.202417</v>
+        <v>0.8858993333333333</v>
       </c>
       <c r="H9">
-        <v>0.607251</v>
+        <v>2.657698</v>
       </c>
       <c r="I9">
-        <v>0.06803380879803139</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="J9">
-        <v>0.06803380879803141</v>
+        <v>0.2199763179924491</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,270 @@
         <v>17.571654</v>
       </c>
       <c r="O9">
-        <v>0.9769191903130762</v>
+        <v>0.9099518806603505</v>
       </c>
       <c r="P9">
-        <v>0.9769191903130762</v>
+        <v>0.9099518806603506</v>
       </c>
       <c r="Q9">
-        <v>1.185600495906</v>
+        <v>5.188905521388</v>
       </c>
       <c r="R9">
-        <v>10.670404463154</v>
+        <v>46.700149692492</v>
       </c>
       <c r="S9">
-        <v>0.06646353340488746</v>
+        <v>0.2001678642579684</v>
       </c>
       <c r="T9">
-        <v>0.06646353340488748</v>
+        <v>0.2001678642579684</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.8858993333333333</v>
+      </c>
+      <c r="H10">
+        <v>2.657698</v>
+      </c>
+      <c r="I10">
+        <v>0.2199763179924491</v>
+      </c>
+      <c r="J10">
+        <v>0.2199763179924491</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1371873333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.411562</v>
+      </c>
+      <c r="O10">
+        <v>0.02131282666437293</v>
+      </c>
+      <c r="P10">
+        <v>0.02131282666437293</v>
+      </c>
+      <c r="Q10">
+        <v>0.1215341671417778</v>
+      </c>
+      <c r="R10">
+        <v>1.093807504276</v>
+      </c>
+      <c r="S10">
+        <v>0.004688317135640048</v>
+      </c>
+      <c r="T10">
+        <v>0.004688317135640048</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1983963333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.595189</v>
+      </c>
+      <c r="I11">
+        <v>0.04926349221379096</v>
+      </c>
+      <c r="J11">
+        <v>0.04926349221379096</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.4424383333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.327315</v>
+      </c>
+      <c r="O11">
+        <v>0.06873529267527652</v>
+      </c>
+      <c r="P11">
+        <v>0.06873529267527652</v>
+      </c>
+      <c r="Q11">
+        <v>0.08777814305944444</v>
+      </c>
+      <c r="R11">
+        <v>0.7900032875349999</v>
+      </c>
+      <c r="S11">
+        <v>0.003386140555521128</v>
+      </c>
+      <c r="T11">
+        <v>0.003386140555521128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1983963333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.595189</v>
+      </c>
+      <c r="I12">
+        <v>0.04926349221379096</v>
+      </c>
+      <c r="J12">
+        <v>0.04926349221379096</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>5.857218</v>
+      </c>
+      <c r="N12">
+        <v>17.571654</v>
+      </c>
+      <c r="O12">
+        <v>0.9099518806603505</v>
+      </c>
+      <c r="P12">
+        <v>0.9099518806603506</v>
+      </c>
+      <c r="Q12">
+        <v>1.162050574734</v>
+      </c>
+      <c r="R12">
+        <v>10.458455172606</v>
+      </c>
+      <c r="S12">
+        <v>0.04482740738783561</v>
+      </c>
+      <c r="T12">
+        <v>0.04482740738783562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1983963333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.595189</v>
+      </c>
+      <c r="I13">
+        <v>0.04926349221379096</v>
+      </c>
+      <c r="J13">
+        <v>0.04926349221379096</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.1371873333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.411562</v>
+      </c>
+      <c r="O13">
+        <v>0.02131282666437293</v>
+      </c>
+      <c r="P13">
+        <v>0.02131282666437293</v>
+      </c>
+      <c r="Q13">
+        <v>0.02721746391311111</v>
+      </c>
+      <c r="R13">
+        <v>0.244957175218</v>
+      </c>
+      <c r="S13">
+        <v>0.001049944270434212</v>
+      </c>
+      <c r="T13">
+        <v>0.001049944270434212</v>
       </c>
     </row>
   </sheetData>
